--- a/gotun2socks.xlsx
+++ b/gotun2socks.xlsx
@@ -4635,16 +4635,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>83127</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>498764</xdr:colOff>
       <xdr:row>242</xdr:row>
-      <xdr:rowOff>27709</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>595745</xdr:colOff>
+      <xdr:rowOff>41564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>110836</xdr:colOff>
       <xdr:row>243</xdr:row>
-      <xdr:rowOff>166254</xdr:rowOff>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4653,8 +4653,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21419127" y="43614109"/>
-          <a:ext cx="3560618" cy="318654"/>
+          <a:off x="21225164" y="43627964"/>
+          <a:ext cx="5098472" cy="290946"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4711,7 +4711,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>则创建链接</a:t>
+            <a:t>则创建链接并进行协议认证</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6501,6 +6501,1622 @@
           <a:solidFill>
             <a:srgbClr val="00B0F0"/>
           </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>138545</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>41565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>180109</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>124691</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="直接箭头连接符 123"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7453745" y="46329601"/>
+          <a:ext cx="29302364" cy="7287490"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>408486</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>7034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60579000" y="27477720"/>
+          <a:ext cx="8714286" cy="5630594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="直接箭头连接符 127"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19690080" y="29077921"/>
+          <a:ext cx="41803320" cy="1158239"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>86591</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>135082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>266400</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>38853</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="69580991" y="28710082"/>
+          <a:ext cx="9323809" cy="8285771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>115</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直接箭头连接符 129"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="66065400" y="29546552"/>
+          <a:ext cx="4400550" cy="3829048"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>13856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>118</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="直接箭头连接符 131"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="19812000" y="13539356"/>
+          <a:ext cx="52597050" cy="18388444"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>574965</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>32904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>116</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="直接箭头连接符 134"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4842165" y="4033404"/>
+          <a:ext cx="66404835" cy="29951796"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>46519</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>46038</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="图片 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="69837300" y="37071300"/>
+          <a:ext cx="8847619" cy="12695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>117</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>119</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="直接箭头连接符 139"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="71837550" y="35928300"/>
+          <a:ext cx="971550" cy="2324100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>135</xdr:col>
+      <xdr:colOff>27798</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>104676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="图片 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76104750" y="38557200"/>
+          <a:ext cx="6219048" cy="790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>141</xdr:col>
+      <xdr:colOff>84838</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>180517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="图片 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="78943200" y="39376350"/>
+          <a:ext cx="7095238" cy="3666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>125</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="直接箭头连接符 144"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="75723750" y="38842950"/>
+          <a:ext cx="895350" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>133</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="直接箭头连接符 146"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="78886050" y="39185850"/>
+          <a:ext cx="2590800" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>135</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>146</xdr:col>
+      <xdr:colOff>551602</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>37776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="图片 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="82772250" y="36499800"/>
+          <a:ext cx="6780952" cy="2590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>131</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>137</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="151" name="直接箭头连接符 150"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="79952850" y="38328600"/>
+          <a:ext cx="3714750" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>132</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>138</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="154" name="直接箭头连接符 153"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="80752950" y="38481000"/>
+          <a:ext cx="3467100" cy="2990850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>141</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>156</xdr:col>
+      <xdr:colOff>598869</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>37238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="图片 63"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="86048850" y="39433500"/>
+          <a:ext cx="9647619" cy="6895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>24245</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>130</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>22516</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="156" name="直接箭头连接符 155"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8558645" y="41548050"/>
+          <a:ext cx="71203705" cy="6670966"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>136</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>143</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="158" name="直接箭头连接符 157"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="83115150" y="41052750"/>
+          <a:ext cx="4514850" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>131</xdr:col>
+      <xdr:colOff>55912</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>160452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="图片 80"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="70008750" y="47008473"/>
+          <a:ext cx="9904762" cy="11147106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>126</xdr:col>
+      <xdr:colOff>484864</xdr:colOff>
+      <xdr:row>387</xdr:row>
+      <xdr:rowOff>55612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="图片 81"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="70008750" y="61474350"/>
+          <a:ext cx="7285714" cy="12304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>386</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>123</xdr:col>
+      <xdr:colOff>170812</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>123517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="图片 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="70046850" y="73666350"/>
+          <a:ext cx="5104762" cy="2466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>126</xdr:col>
+      <xdr:colOff>443346</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>137</xdr:col>
+      <xdr:colOff>490127</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>179671</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="图片 84"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="77252946" y="46385018"/>
+          <a:ext cx="6752381" cy="3504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>121</xdr:col>
+      <xdr:colOff>105641</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>124691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>128</xdr:col>
+      <xdr:colOff>429491</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>105643</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="直接箭头连接符 164"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="73867241" y="47313273"/>
+          <a:ext cx="4591050" cy="2862697"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>116</xdr:col>
+      <xdr:colOff>174913</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>91789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>119</xdr:col>
+      <xdr:colOff>429491</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="176" name="直接箭头连接符 175"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="70888513" y="40796444"/>
+          <a:ext cx="2083378" cy="10908720"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>130</xdr:col>
+      <xdr:colOff>290944</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>180108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>141</xdr:col>
+      <xdr:colOff>147249</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>140922</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="图片 91"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="79538944" y="49890217"/>
+          <a:ext cx="6561905" cy="1761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>123</xdr:col>
+      <xdr:colOff>521277</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>166255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>132</xdr:col>
+      <xdr:colOff>96982</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>64081</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="177" name="直接箭头连接符 176"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="75502077" y="50236582"/>
+          <a:ext cx="5062105" cy="798372"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>126</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>41564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>137</xdr:col>
+      <xdr:colOff>287482</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>176089</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="图片 94"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76878873" y="51732873"/>
+          <a:ext cx="6923809" cy="4457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>123</xdr:col>
+      <xdr:colOff>271895</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>119500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>568036</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>27709</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="178" name="直接箭头连接符 177"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="75252695" y="51810809"/>
+          <a:ext cx="2734541" cy="268427"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>121</xdr:col>
+      <xdr:colOff>374073</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>8659</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>147208</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="180" name="直接箭头连接符 179"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="74135673" y="51940691"/>
+          <a:ext cx="4511386" cy="2779572"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>120</xdr:col>
+      <xdr:colOff>249382</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>121</xdr:col>
+      <xdr:colOff>318655</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>41564</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="183" name="直接箭头连接符 182"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="73401382" y="51968400"/>
+          <a:ext cx="678873" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>118</xdr:col>
+      <xdr:colOff>271895</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>64080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>263236</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="186" name="直接箭头连接符 185"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="72204695" y="36986444"/>
+          <a:ext cx="2429741" cy="6683083"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>180109</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>332509</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>124691</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="187" name="直接箭头连接符 186"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="74551309" y="43835782"/>
+          <a:ext cx="152400" cy="2757054"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>119</xdr:col>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>119</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>41564</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="190" name="直接箭头连接符 189"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="72556255" y="51885273"/>
+          <a:ext cx="443345" cy="12275127"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>117</xdr:col>
+      <xdr:colOff>251114</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>58882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>119</xdr:col>
+      <xdr:colOff>401782</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="194" name="直接箭头连接符 193"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="71574314" y="30497318"/>
+          <a:ext cx="1369868" cy="31834282"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -8784,8 +10400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BT303" sqref="BT303"/>
+    <sheetView tabSelected="1" topLeftCell="DC317" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="EH334" sqref="EH334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8801,7 +10417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A104" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AQ218" sqref="AQ218"/>
     </sheetView>
   </sheetViews>
